--- a/Solar_Prices.xlsx
+++ b/Solar_Prices.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -464,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,6 +508,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -507,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +563,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -550,7 +586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,6 +618,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -593,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +673,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -636,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,6 +728,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5,179</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -679,7 +751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,6 +783,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7,753</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -722,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,6 +838,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7,803</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -765,7 +861,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +893,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.2998</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Solar_Prices.xlsx
+++ b/Solar_Prices.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5,179</t>
+          <t>5,195</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7,753</t>
+          <t>7,777</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7,803</t>
+          <t>7,827</t>
         </is>
       </c>
     </row>
